--- a/biology/Botanique/Tilia_japonica/Tilia_japonica.xlsx
+++ b/biology/Botanique/Tilia_japonica/Tilia_japonica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tilia japonica (Tilleul du Japon) est une espèce de tilleul de la famille des Tiliaceae endémique 
 de Chine et du Japon.
@@ -512,7 +524,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tilia japonica a été décrit par le botaniste hongrois Lajos Simonkai en 1888.
 </t>
@@ -543,7 +557,9 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Shinanoki, Japon
 Japanese linden, monde anglophone</t>
@@ -574,7 +590,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hibiscus japonicus Miq.
 Tilia cordata var. japonica Miq.
@@ -607,9 +625,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Très ressemblant à Tilia cordata, le tilleul du Japon forme un arbre de plus modeste dimension : il pousse de 8 m en 10 ans dans nos jardins européens, avec une petite feuille à pointe plus effilée. Les fleurs sont très mellifères. En cymes pendantes, elles embaument le jardin en juillet[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très ressemblant à Tilia cordata, le tilleul du Japon forme un arbre de plus modeste dimension : il pousse de 8 m en 10 ans dans nos jardins européens, avec une petite feuille à pointe plus effilée. Les fleurs sont très mellifères. En cymes pendantes, elles embaument le jardin en juillet.
 </t>
         </is>
       </c>
@@ -638,9 +658,11 @@
           <t>Anecdote</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tilleul du Japon est l'arbre symbole de la municipalité de Nagano, au Japon[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tilleul du Japon est l'arbre symbole de la municipalité de Nagano, au Japon.
 </t>
         </is>
       </c>
